--- a/inflacao.xlsx
+++ b/inflacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\vinciusmiranda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinie\Documents\GitHub\projeto_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38574744-EEB5-4AB4-9E84-70D395FE6955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52AEB9B-2148-4A69-B4B4-8AC7FC924076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BDDFDAD-BA3F-4D09-B4D8-16FB7964AED7}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>5.79</v>
